--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2684005.609837055</v>
+        <v>2679909.968332289</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9011415.281147046</v>
+        <v>9011415.281147048</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>221.5663137670928</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>63.60994111855886</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,22 +819,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>117.6018646952191</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>95.62582286987069</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -873,19 +873,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>242.8462963290791</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>85.77913548564651</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>50.9807481254279</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>52.82878964426889</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>111.566875730839</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>69.93845660440974</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1296,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>218.1043346164863</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>42.13917126070044</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>184.61419076404</v>
       </c>
       <c r="U13" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>202.5357706617339</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588585</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>35.99871774582724</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2241,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>36.74735985927992</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>99.70681342859956</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>111.306220275312</v>
       </c>
     </row>
     <row r="26">
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>271.1749250822257</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.4385057595951</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>222.1774156618448</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695527</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784682</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>159.3471710336506</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>19.72264368952201</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3900,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3948,10 +3948,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>67.97896981790616</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>123.6562577500929</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>135.3135037226517</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1841.137109080772</v>
+        <v>1324.80586733131</v>
       </c>
       <c r="C2" t="n">
-        <v>1472.174592140361</v>
+        <v>955.8433503908984</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>597.577651784148</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>597.577651784148</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056584</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W2" t="n">
-        <v>2231.276441056584</v>
+        <v>2084.871465656512</v>
       </c>
       <c r="X2" t="n">
-        <v>2231.276441056584</v>
+        <v>1711.405707395432</v>
       </c>
       <c r="Y2" t="n">
-        <v>1841.137109080772</v>
+        <v>1711.405707395432</v>
       </c>
     </row>
     <row r="3">
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605189</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919907</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748156</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924318</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756615</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.7002604214525</v>
+        <v>908.4431888110454</v>
       </c>
       <c r="C4" t="n">
-        <v>550.7002604214525</v>
+        <v>739.5070058831385</v>
       </c>
       <c r="D4" t="n">
-        <v>400.5836210091168</v>
+        <v>739.5070058831385</v>
       </c>
       <c r="E4" t="n">
-        <v>400.5836210091168</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>253.6936735112064</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>253.6936735112064</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4521,19 +4521,19 @@
         <v>1310.884232784815</v>
       </c>
       <c r="U4" t="n">
-        <v>1021.765895288653</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V4" t="n">
-        <v>1021.765895288653</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="W4" t="n">
-        <v>732.3487252516923</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="X4" t="n">
-        <v>732.3487252516923</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="Y4" t="n">
-        <v>732.3487252516923</v>
+        <v>1090.091653641285</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1054.551232880759</v>
+        <v>934.6665353554979</v>
       </c>
       <c r="C5" t="n">
-        <v>685.5887159403469</v>
+        <v>934.6665353554979</v>
       </c>
       <c r="D5" t="n">
-        <v>685.5887159403469</v>
+        <v>934.6665353554979</v>
       </c>
       <c r="E5" t="n">
-        <v>440.2894267190549</v>
+        <v>548.8782827572536</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>137.892377967646</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4588,10 +4588,10 @@
         <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
         <v>2437.640120926626</v>
@@ -4600,19 +4600,19 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190806</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2184.059060190806</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W5" t="n">
-        <v>1831.290404920692</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="X5" t="n">
-        <v>1831.290404920692</v>
+        <v>1711.405707395431</v>
       </c>
       <c r="Y5" t="n">
-        <v>1441.15107294488</v>
+        <v>1321.26637541962</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495379</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1352.031492328576</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N6" t="n">
-        <v>1739.316620925522</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O6" t="n">
-        <v>2071.387056101683</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P6" t="n">
-        <v>2318.56978993398</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>981.8280128167645</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C7" t="n">
-        <v>812.8918298888576</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D7" t="n">
-        <v>662.7751904765219</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941287</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1583.083706292408</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1386.454958452269</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1163.476477647004</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1163.476477647004</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1163.476477647004</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1163.476477647004</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X7" t="n">
-        <v>1163.476477647004</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>1163.476477647004</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1405.52688261361</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1405.52688261361</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1047.26118400686</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>1047.26118400686</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F8" t="n">
-        <v>636.2752792172525</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G8" t="n">
-        <v>221.202829062249</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3254.960915948152</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3048.983168332374</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>3048.983168332374</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2717.920280988803</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2365.151625718689</v>
       </c>
       <c r="X8" t="n">
-        <v>2182.266054653544</v>
+        <v>1991.685867457609</v>
       </c>
       <c r="Y8" t="n">
-        <v>1792.126722677732</v>
+        <v>1601.546535481797</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>626.9042569062804</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C10" t="n">
-        <v>457.9680739783734</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D10" t="n">
-        <v>457.9680739783734</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1706.987139384971</v>
       </c>
       <c r="V10" t="n">
-        <v>1071.910120335303</v>
+        <v>1452.302651179084</v>
       </c>
       <c r="W10" t="n">
-        <v>1071.910120335303</v>
+        <v>1162.885481142124</v>
       </c>
       <c r="X10" t="n">
-        <v>1029.34530088005</v>
+        <v>934.8959302441062</v>
       </c>
       <c r="Y10" t="n">
-        <v>808.5527217365201</v>
+        <v>714.1033511005761</v>
       </c>
     </row>
     <row r="11">
@@ -5032,37 +5032,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5120,19 +5120,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
         <v>2129.438138565707</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2010.58356491783</v>
       </c>
       <c r="U13" t="n">
-        <v>1828.279732885522</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="V13" t="n">
-        <v>1573.595244679635</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>983.3090381835199</v>
       </c>
     </row>
     <row r="14">
@@ -5272,28 +5272,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5305,19 +5305,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191924</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.067041434951</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>783.5579673960132</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>614.6217844681063</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1992.480958960563</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1703.405732304761</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1703.405732304761</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1413.9885622678</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>1185.999011369783</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>965.2064322262529</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5594,22 +5594,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.777212765616</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.700204330166</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.624977674364</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,28 +5743,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5834,25 +5834,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1336.167399417937</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>697.5276345711974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5955,7 +5955,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>879.1760994014371</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2383.002557118213</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>2716.927329289434</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>3212.252935505192</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>3212.252935505192</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>3839.850899059799</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
-        <v>4391.760629299086</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>741.8431516380886</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C25" t="n">
-        <v>741.8431516380886</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>591.7265122257528</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>443.8134186433597</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6189,10 +6189,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>923.4916164683283</v>
+        <v>803.8641191832229</v>
       </c>
     </row>
     <row r="26">
@@ -6217,19 +6217,19 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>2546.907945506608</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>3042.233551722367</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>3639.612039348919</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>4267.210002903525</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>3210.485548300425</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>3511.3254586047</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>4138.923422159307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3167.361685286662</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3388.154264430192</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3167.361685286662</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6794,10 +6794,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3050.70875851172</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>2881.772575583813</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>2881.772575583813</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>2733.85948200142</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>2586.96953450351</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2419.77343521839</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305899</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.33114932884</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673038</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467151</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>3453.14980248549</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>3453.14980248549</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>3232.35722334196</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6925,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6964,19 +6964,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591808</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7025,10 +7025,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>923.4916164683283</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611858</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.4916164683283</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,37 +7156,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7256,19 +7256,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3195.262992109387</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>3026.32680918148</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>2876.210169769145</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>2728.297076186751</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>2581.407128688841</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>4623.787448650995</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>4404.185983673937</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>4115.110757018135</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>4115.110757018135</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>3825.693586981174</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>3597.704036083157</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>3376.911456939627</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7402,28 +7402,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7493,25 +7493,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2311.25175375397</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2022.176527098168</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1767.492038892281</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1478.07486885532</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7730,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1056.376371837086</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C46" t="n">
-        <v>887.4401889091791</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D46" t="n">
-        <v>737.3235494968434</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>589.4104559144503</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5205084165399</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
         <v>317.6151975578602</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1238.024836667326</v>
+        <v>779.6143379232838</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>265.0304328515151</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9393975111053</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8303,22 +8303,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>0.9556134883067671</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>105.1672460959147</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23469,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>32.7912595632483</v>
       </c>
       <c r="U13" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>14.86967966555432</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>181.406732581461</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>181.8372934928149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>45.71423459433169</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>107.2784330767828</v>
       </c>
     </row>
     <row r="26">
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>15.00954930701846</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.80831533903273</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>64.34558267474617</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>7.899650064977237</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>145.8014946027468</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>149.4264805093821</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>41.86788054217597</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>83.27114962944304</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>774718.541250666</v>
+        <v>774718.5412506659</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>774718.5412506659</v>
+        <v>774718.5412506661</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>774718.541250666</v>
+        <v>774718.5412506659</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>774718.541250666</v>
+        <v>774718.5412506659</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>774718.5412506659</v>
+        <v>774718.5412506661</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>774718.541250666</v>
+        <v>774718.5412506659</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>774718.5412506661</v>
+        <v>774718.5412506659</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>774718.541250666</v>
+        <v>774718.5412506659</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914272</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914271</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="L2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="F2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="G2" t="n">
-        <v>645717.2797520045</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="O2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.279752005</v>
       </c>
       <c r="P2" t="n">
         <v>645717.2797520051</v>
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819063</v>
+        <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309559</v>
+        <v>87914.29116309555</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744346</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
         <v>8727.256391744284</v>
@@ -26447,13 +26447,13 @@
         <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744348</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.25639174432</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744282</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.77243984472</v>
+      </c>
+      <c r="C5" t="n">
         <v>92937.7724398447</v>
-      </c>
-      <c r="C5" t="n">
-        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-686378.2771013203</v>
+        <v>-686378.2771013207</v>
       </c>
       <c r="C6" t="n">
         <v>428373.5064745992</v>
       </c>
       <c r="D6" t="n">
-        <v>268358.0437266001</v>
+        <v>268358.0437265998</v>
       </c>
       <c r="E6" t="n">
-        <v>210455.0317289982</v>
+        <v>210107.6524746415</v>
       </c>
       <c r="F6" t="n">
-        <v>535867.4935363538</v>
+        <v>535520.114281997</v>
       </c>
       <c r="G6" t="n">
-        <v>535867.493536353</v>
+        <v>535520.1142819969</v>
       </c>
       <c r="H6" t="n">
-        <v>535867.4935363538</v>
+        <v>535520.1142819966</v>
       </c>
       <c r="I6" t="n">
-        <v>535867.4935363535</v>
+        <v>535520.1142819967</v>
       </c>
       <c r="J6" t="n">
-        <v>368262.3157263709</v>
+        <v>367914.9364720142</v>
       </c>
       <c r="K6" t="n">
-        <v>535867.4935363537</v>
+        <v>535520.1142819966</v>
       </c>
       <c r="L6" t="n">
-        <v>487573.523528163</v>
+        <v>487226.1442738057</v>
       </c>
       <c r="M6" t="n">
-        <v>450812.4656008416</v>
+        <v>450465.0863464847</v>
       </c>
       <c r="N6" t="n">
-        <v>535867.4935363537</v>
+        <v>535520.1142819965</v>
       </c>
       <c r="O6" t="n">
-        <v>535867.4935363537</v>
+        <v>535520.1142819966</v>
       </c>
       <c r="P6" t="n">
-        <v>535867.4935363538</v>
+        <v>535520.1142819969</v>
       </c>
     </row>
   </sheetData>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022534</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>133.1167278535902</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>343.2661046231526</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -27438,16 +27438,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>28.83209795135004</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>51.62568628525815</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>139.0840737431827</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>325.7685672873075</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>115.3258519193763</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>48.72878277530473</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>183.0408886564815</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>39.2493051837661</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>68.10750358912654</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>183.5704841283367</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30051,7 +30051,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>8.360392837795219e-13</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912044</v>
       </c>
       <c r="N12" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N15" t="n">
-        <v>189.0011860883004</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32314,10 +32314,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32326,13 +32326,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32554,7 +32554,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32563,19 +32563,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>533.0479862785273</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32797,16 +32797,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P24" t="n">
-        <v>436.0678650906006</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -32964,7 +32964,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
         <v>593.8732233669223</v>
@@ -33025,10 +33025,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>305.1876769472499</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33271,13 +33271,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>446.0127311990636</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>164.9290651940687</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33745,13 +33745,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33976,7 +33976,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>309.9424824173362</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34213,28 +34213,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34450,10 +34450,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
@@ -34786,19 +34786,19 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.4201198419598</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>640.584832100039</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>392.1527130811807</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
-        <v>221.6479684267693</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691861</v>
       </c>
       <c r="N12" t="n">
-        <v>57.65947400496688</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N15" t="n">
-        <v>57.65947400496711</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35974,13 +35974,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36211,19 +36211,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>399.073578864197</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36445,16 +36445,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P24" t="n">
-        <v>302.0934576762704</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36612,7 +36612,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>167.3462379728909</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36919,13 +36919,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>303.8786972770453</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>22.33282074962425</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37393,13 +37393,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37624,7 +37624,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>167.3462379728918</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37861,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2679909.968332289</v>
+        <v>2681670.498635074</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9011415.281147048</v>
+        <v>9011415.281147046</v>
       </c>
     </row>
     <row r="11">
@@ -664,19 +664,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>43.13251517495361</v>
       </c>
       <c r="F2" t="n">
-        <v>63.60994111855886</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>85.77913548564651</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>59.48550737293763</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>50.9807481254279</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172148</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1150,10 +1150,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>54.41653174045868</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>69.93845660440974</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>147.4820184895076</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>218.1043346164863</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>184.61419076404</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>265.6996652409575</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>214.0647808588585</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>111.306220275312</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>191.3928535690711</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695527</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>135.3135037226517</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1324.80586733131</v>
+        <v>1660.900948886693</v>
       </c>
       <c r="C2" t="n">
-        <v>955.8433503908984</v>
+        <v>1291.938431946281</v>
       </c>
       <c r="D2" t="n">
-        <v>597.577651784148</v>
+        <v>1291.938431946281</v>
       </c>
       <c r="E2" t="n">
-        <v>597.577651784148</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4369,13 +4369,13 @@
         <v>2437.640120926626</v>
       </c>
       <c r="W2" t="n">
-        <v>2084.871465656512</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X2" t="n">
-        <v>1711.405707395432</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="Y2" t="n">
-        <v>1711.405707395432</v>
+        <v>2047.500788950814</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4412,25 +4412,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049859</v>
+        <v>790.7764984014359</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1154.038517360656</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1541.323645957601</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>2175.50262973664</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.02341329261</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400156</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>934.6665353554979</v>
+        <v>2051.040280862504</v>
       </c>
       <c r="C5" t="n">
-        <v>934.6665353554979</v>
+        <v>1682.077763922092</v>
       </c>
       <c r="D5" t="n">
-        <v>934.6665353554979</v>
+        <v>1323.812065315341</v>
       </c>
       <c r="E5" t="n">
-        <v>548.8782827572536</v>
+        <v>938.0238127170971</v>
       </c>
       <c r="F5" t="n">
-        <v>137.892377967646</v>
+        <v>527.0379079274896</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>111.3331576517785</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>111.3331576517785</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
@@ -4606,13 +4606,13 @@
         <v>2437.640120926626</v>
       </c>
       <c r="W5" t="n">
-        <v>2084.871465656511</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X5" t="n">
-        <v>1711.405707395431</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="Y5" t="n">
-        <v>1321.26637541962</v>
+        <v>2437.640120926626</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4637,10 +4637,10 @@
         <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
@@ -4658,13 +4658,13 @@
         <v>956.284402521753</v>
       </c>
       <c r="N6" t="n">
-        <v>1344.515588472122</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O6" t="n">
         <v>1676.586023648284</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4685,7 +4685,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657491</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378422</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>397.5455328255065</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>249.6324392431134</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>102.742491745203</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
         <v>51.24678656800311</v>
@@ -4764,13 +4764,13 @@
         <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037536</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.039399139519</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959889</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>971.281412372397</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363905</v>
+        <v>585.4931597741527</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678289</v>
+        <v>174.5072549845451</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>163.4752088699457</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3254.960915948152</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3048.983168332374</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3048.983168332374</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2717.920280988803</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.151625718689</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1991.685867457609</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1601.546535481797</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064554</v>
@@ -4889,16 +4889,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>532.4548862703364</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="C10" t="n">
-        <v>363.5187033424295</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D10" t="n">
         <v>213.4020639300938</v>
@@ -4950,16 +4950,16 @@
         <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1778.322812240505</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1556.556196810031</v>
       </c>
       <c r="U10" t="n">
-        <v>1706.987139384971</v>
+        <v>1267.453329935675</v>
       </c>
       <c r="V10" t="n">
-        <v>1452.302651179084</v>
+        <v>1012.768841729788</v>
       </c>
       <c r="W10" t="n">
-        <v>1162.885481142124</v>
+        <v>1012.768841729788</v>
       </c>
       <c r="X10" t="n">
-        <v>934.8959302441062</v>
+        <v>784.7792908317706</v>
       </c>
       <c r="Y10" t="n">
-        <v>714.1033511005761</v>
+        <v>563.9867116882405</v>
       </c>
     </row>
     <row r="11">
@@ -5023,13 +5023,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,31 +5038,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5129,16 +5129,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6605733532801</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7243904253733</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2010.58356491783</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1721.508338262028</v>
+        <v>1709.077580267117</v>
       </c>
       <c r="V13" t="n">
-        <v>1721.508338262028</v>
+        <v>1454.39309206123</v>
       </c>
       <c r="W13" t="n">
-        <v>1432.091168225067</v>
+        <v>1164.975922024269</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.10161732705</v>
+        <v>1164.975922024269</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3090381835199</v>
+        <v>944.1833428807391</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,10 +5290,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5357,25 +5357,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951537</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,10 +5530,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5603,10 +5603,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5743,28 +5743,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5837,13 +5837,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5901,7 +5901,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5992,7 +5992,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6068,19 +6068,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6192,7 +6192,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>803.8641191832229</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6305,19 +6305,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2003.736430771334</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1714.661204115532</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1459.976715909645</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1170.559545872684</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>942.5699949746667</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>721.7774158311365</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6600,22 +6600,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6688,19 +6688,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
         <v>484.8112968429803</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,37 +6919,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,37 +7156,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7651,16 +7651,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>779.6143379232838</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>779.6143379232838</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>199.751631150407</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.160150103916</v>
       </c>
       <c r="P3" t="n">
-        <v>265.0304328515151</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8306,10 +8306,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9556134883067671</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>0.9556134883071081</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23469,19 +23469,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>32.7912595632483</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>20.48480914828667</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>107.2784330767828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>26.0125967582172</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>83.27114962944304</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>774718.541250666</v>
+        <v>774718.5412506659</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>774718.541250666</v>
+        <v>774718.5412506659</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>774718.5412506661</v>
+        <v>774718.5412506659</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>774718.5412506659</v>
+        <v>774718.541250666</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>774718.5412506659</v>
+        <v>774718.541250666</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>774718.5412506661</v>
+        <v>774718.541250666</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>774718.5412506659</v>
+        <v>774718.541250666</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>774718.541250666</v>
+        <v>774718.5412506659</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>656833.4158914268</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914271</v>
+        <v>656833.415891427</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="H2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="F2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="J2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="L2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="N2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="O2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="J2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>645717.2797520048</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.2797520051</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,16 +26395,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309555</v>
+        <v>87914.29116309561</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
         <v>8727.256391744284</v>
@@ -26438,10 +26438,10 @@
         <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
         <v>8727.256391744282</v>
@@ -26524,46 +26524,46 @@
         <v>-686378.2771013207</v>
       </c>
       <c r="C6" t="n">
-        <v>428373.5064745992</v>
+        <v>428373.5064745991</v>
       </c>
       <c r="D6" t="n">
-        <v>268358.0437265998</v>
+        <v>268358.0437265997</v>
       </c>
       <c r="E6" t="n">
-        <v>210107.6524746415</v>
+        <v>210420.2938035626</v>
       </c>
       <c r="F6" t="n">
-        <v>535520.114281997</v>
+        <v>535832.7556109179</v>
       </c>
       <c r="G6" t="n">
-        <v>535520.1142819969</v>
+        <v>535832.755610918</v>
       </c>
       <c r="H6" t="n">
-        <v>535520.1142819966</v>
+        <v>535832.7556109182</v>
       </c>
       <c r="I6" t="n">
-        <v>535520.1142819967</v>
+        <v>535832.7556109177</v>
       </c>
       <c r="J6" t="n">
-        <v>367914.9364720142</v>
+        <v>368227.5778009352</v>
       </c>
       <c r="K6" t="n">
-        <v>535520.1142819966</v>
+        <v>535832.7556109182</v>
       </c>
       <c r="L6" t="n">
-        <v>487226.1442738057</v>
+        <v>487538.7856027271</v>
       </c>
       <c r="M6" t="n">
-        <v>450465.0863464847</v>
+        <v>450777.7276754059</v>
       </c>
       <c r="N6" t="n">
-        <v>535520.1142819965</v>
+        <v>535832.7556109177</v>
       </c>
       <c r="O6" t="n">
-        <v>535520.1142819966</v>
+        <v>535832.7556109179</v>
       </c>
       <c r="P6" t="n">
-        <v>535520.1142819969</v>
+        <v>535832.7556109179</v>
       </c>
     </row>
   </sheetData>
@@ -26795,7 +26795,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>338.7978548973082</v>
       </c>
       <c r="F2" t="n">
-        <v>343.2661046231526</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>325.7685672873075</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>6.224405299532869</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>115.3258519193763</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>115.3258519193762</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>240.1912326468618</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>39.2493051837661</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28061,19 +28061,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>42.2870068419343</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>68.10750358912654</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>575.5951359912044</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>232.75998908852</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32323,13 +32323,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32557,7 +32557,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32788,7 +32788,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32800,10 +32800,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33025,10 +33025,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>400.5469039565762</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>497.4319917882572</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820405</v>
@@ -34792,16 +34792,16 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>640.584832100039</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750473</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35026,10 +35026,10 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>392.1527130811807</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>336.3802954844301</v>
       </c>
       <c r="P6" t="n">
         <v>568.1422977634694</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>433.4611020691861</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,13 +35971,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36205,7 +36205,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36448,10 +36448,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>257.9506595121318</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
